--- a/src/public/reportes/excel/reporte.xlsx
+++ b/src/public/reportes/excel/reporte.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>RAFAEL GUSTAVO FARARONI MAGAÑA DIP. DISTRITO XXV</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Fecha y Hora:</t>
   </si>
   <si>
-    <t>1-6-2022 10:17:30</t>
+    <t>16-6-2022 12:49:54</t>
   </si>
   <si>
     <t>ID</t>
@@ -64,37 +64,49 @@
     <t>TIPO CARGO</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>DULCE MARIA</t>
-  </si>
-  <si>
-    <t>MARABOTO</t>
-  </si>
-  <si>
-    <t>AMBROS</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>YESICA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>MAYORAL</t>
+  </si>
+  <si>
+    <t>ORGANISTA</t>
   </si>
   <si>
     <t>SAN ANDRES TUXTLA</t>
   </si>
   <si>
-    <t>BENITO JUÁREZ</t>
+    <t>CHICHIPILCO</t>
   </si>
   <si>
     <t>95790</t>
   </si>
   <si>
-    <t>3343</t>
-  </si>
-  <si>
-    <t>2949436127</t>
-  </si>
-  <si>
-    <t>BENITO JUAREZ</t>
+    <t>3336</t>
+  </si>
+  <si>
+    <t>2941541070</t>
   </si>
   <si>
     <t>COORDINADOR</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>LUCHO</t>
+  </si>
+  <si>
+    <t>COBAXIN</t>
+  </si>
+  <si>
+    <t>2949443327</t>
   </si>
 </sst>
 </file>
@@ -134,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -226,10 +238,45 @@
         <v>25</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="0" t="s">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="0" t="s">
         <v>27</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
